--- a/Data/Batches.xlsx
+++ b/Data/Batches.xlsx
@@ -436,16 +436,40 @@
     <x:t>BATCH024</x:t>
   </x:si>
   <x:si>
+    <x:t>2025-10-24 16:57:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-10-25 16:58:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-10-24 16:58:06</x:t>
+  </x:si>
+  <x:si>
     <x:t>2025-10-24 17:00:42</x:t>
   </x:si>
   <x:si>
-    <x:t>2025-10-24 16:57:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-10-25 16:58:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-10-24 16:58:06</x:t>
+    <x:t>BATCH025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Official - Test 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-10-29 15:32:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-10-30 15:32:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-10-29 15:33:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-10-29 15:37:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aborted from weighing interface</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-10-29 15:38:13</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2115,10 +2139,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
         <x:v>141</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="s">
-        <x:v>142</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
         <x:v>21</x:v>
@@ -2130,11 +2154,11 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="L25" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="M25" s="0" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="M25" s="0" t="s">
-        <x:v>140</x:v>
-      </x:c>
       <x:c r="N25" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
@@ -2145,6 +2169,59 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="Q25" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:17">
+      <x:c r="A26" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D26" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E26" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J26" s="2">
+        <x:v>45959.6479516319</x:v>
+      </x:c>
+      <x:c r="K26" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L26" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="M26" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="N26" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="O26" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P26" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="Q26" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>

--- a/Data/Batches.xlsx
+++ b/Data/Batches.xlsx
@@ -470,6 +470,216 @@
   </x:si>
   <x:si>
     <x:t>2025-10-29 15:38:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-05 11:40:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 11:40:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 11:40:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 11:47:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 11:53:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-05 11:53:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 11:53:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 12:02:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-04 12:02:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 12:02:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 12:02:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 12:15:33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH029</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-04 12:21:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-14 12:21:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 12:21:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 12:25:24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 12:30:17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 12:31:51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 12:36:48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 12:38:17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 13:57:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 13:58:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH033</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:01:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:02:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:06:23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:07:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH035</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:10:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:11:26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:15:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:16:48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:28:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:29:24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:36:18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:37:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:39:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:40:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:42:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:49:32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:49:47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:51:34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH042</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:51:28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:52:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH043</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:52:33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:52:47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH044</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:52:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 14:57:14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH045</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 15:02:33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-03 15:02:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InProgress</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2225,6 +2435,1119 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
+    <x:row r="27" spans="1:17">
+      <x:c r="A27" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D27" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E27" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J27" s="2">
+        <x:v>45964.4866810764</x:v>
+      </x:c>
+      <x:c r="K27" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L27" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="M27" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="N27" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O27" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P27" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q27" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:17">
+      <x:c r="A28" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D28" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E28" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J28" s="2">
+        <x:v>45964.4954732986</x:v>
+      </x:c>
+      <x:c r="K28" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L28" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="M28" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="N28" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O28" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P28" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q28" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:17">
+      <x:c r="A29" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D29" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E29" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J29" s="2">
+        <x:v>45964.5016708218</x:v>
+      </x:c>
+      <x:c r="K29" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L29" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="M29" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="N29" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O29" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P29" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q29" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:17">
+      <x:c r="A30" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E30" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J30" s="2">
+        <x:v>45964.5148892014</x:v>
+      </x:c>
+      <x:c r="K30" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L30" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="M30" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="N30" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O30" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P30" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q30" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:17">
+      <x:c r="A31" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D31" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E31" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J31" s="2">
+        <x:v>45964.5210120486</x:v>
+      </x:c>
+      <x:c r="K31" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L31" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="M31" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="N31" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O31" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P31" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q31" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:17">
+      <x:c r="A32" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D32" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E32" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J32" s="2">
+        <x:v>45964.525545625</x:v>
+      </x:c>
+      <x:c r="K32" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L32" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="M32" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="N32" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O32" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P32" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q32" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:17">
+      <x:c r="A33" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D33" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E33" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J33" s="2">
+        <x:v>45964.5812575694</x:v>
+      </x:c>
+      <x:c r="K33" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L33" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="M33" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="N33" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O33" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P33" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q33" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:17">
+      <x:c r="A34" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D34" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E34" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J34" s="2">
+        <x:v>45964.5844427662</x:v>
+      </x:c>
+      <x:c r="K34" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L34" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="M34" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="N34" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O34" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P34" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q34" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:17">
+      <x:c r="A35" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D35" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E35" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J35" s="2">
+        <x:v>45964.5877541898</x:v>
+      </x:c>
+      <x:c r="K35" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L35" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="M35" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="N35" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O35" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P35" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q35" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:17">
+      <x:c r="A36" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D36" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E36" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J36" s="2">
+        <x:v>45964.5907683565</x:v>
+      </x:c>
+      <x:c r="K36" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L36" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="M36" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="N36" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O36" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P36" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q36" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:17">
+      <x:c r="A37" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D37" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E37" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J37" s="2">
+        <x:v>45964.5941959144</x:v>
+      </x:c>
+      <x:c r="K37" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L37" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="M37" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="N37" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O37" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P37" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q37" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:17">
+      <x:c r="A38" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D38" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E38" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J38" s="2">
+        <x:v>45964.6029051968</x:v>
+      </x:c>
+      <x:c r="K38" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L38" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="M38" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="N38" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O38" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P38" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q38" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:17">
+      <x:c r="A39" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D39" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E39" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J39" s="2">
+        <x:v>45964.6085346065</x:v>
+      </x:c>
+      <x:c r="K39" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L39" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="M39" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="N39" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O39" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P39" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q39" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:17">
+      <x:c r="A40" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D40" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E40" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J40" s="2">
+        <x:v>45964.6110165857</x:v>
+      </x:c>
+      <x:c r="K40" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L40" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="M40" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="N40" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O40" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P40" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q40" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:17">
+      <x:c r="A41" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D41" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E41" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J41" s="2">
+        <x:v>45964.6128383681</x:v>
+      </x:c>
+      <x:c r="K41" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L41" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="M41" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="N41" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O41" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P41" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q41" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:17">
+      <x:c r="A42" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D42" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E42" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J42" s="2">
+        <x:v>45964.6178605556</x:v>
+      </x:c>
+      <x:c r="K42" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L42" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="M42" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="N42" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="O42" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P42" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="Q42" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:17">
+      <x:c r="A43" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D43" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E43" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J43" s="2">
+        <x:v>45964.6190658681</x:v>
+      </x:c>
+      <x:c r="K43" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L43" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="M43" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="N43" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="O43" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P43" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="Q43" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:17">
+      <x:c r="A44" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D44" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E44" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J44" s="2">
+        <x:v>45964.6198176852</x:v>
+      </x:c>
+      <x:c r="K44" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L44" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="M44" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="N44" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="O44" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P44" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="Q44" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:17">
+      <x:c r="A45" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D45" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E45" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J45" s="2">
+        <x:v>45964.6200550347</x:v>
+      </x:c>
+      <x:c r="K45" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L45" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="M45" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="N45" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="O45" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P45" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="Q45" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:17">
+      <x:c r="A46" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D46" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E46" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J46" s="2">
+        <x:v>45964.620093912</x:v>
+      </x:c>
+      <x:c r="K46" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L46" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="M46" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="N46" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="O46" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P46" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="Q46" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:17">
+      <x:c r="A47" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D47" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E47" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J47" s="2">
+        <x:v>45964.6268204051</x:v>
+      </x:c>
+      <x:c r="K47" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L47" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="M47" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="N47" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O47" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P47" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q47" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Data/Batches.xlsx
+++ b/Data/Batches.xlsx
@@ -679,7 +679,43 @@
     <x:t>2025-11-03 15:02:38</x:t>
   </x:si>
   <x:si>
+    <x:t>no need</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adibsv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-05 11:57:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH047</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Official - Recipe 01</x:t>
+  </x:si>
+  <x:si>
     <x:t>InProgress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 10:55:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 11:55:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-05 11:55:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-05 12:10:36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 12:10:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-08 12:10:00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3512,7 +3548,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
         <x:v>19</x:v>
@@ -3536,15 +3572,121 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="N47" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="O47" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="P47" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="Q47" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:17">
+      <x:c r="A48" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="D48" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E48" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J48" s="2">
+        <x:v>45966.4969015509</x:v>
+      </x:c>
+      <x:c r="K48" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L48" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="M48" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="N48" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O48" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P48" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q48" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:17">
+      <x:c r="A49" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="D49" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E49" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J49" s="2">
+        <x:v>45966.507346088</x:v>
+      </x:c>
+      <x:c r="K49" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L49" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="M49" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="N49" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O49" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P49" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q49" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>

--- a/Data/Batches.xlsx
+++ b/Data/Batches.xlsx
@@ -694,9 +694,6 @@
     <x:t>Official - Recipe 01</x:t>
   </x:si>
   <x:si>
-    <x:t>InProgress</x:t>
-  </x:si>
-  <x:si>
     <x:t>2025-11-06 10:55:00</x:t>
   </x:si>
   <x:si>
@@ -706,16 +703,224 @@
     <x:t>2025-11-05 11:55:40</x:t>
   </x:si>
   <x:si>
+    <x:t>change recipe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 10:01:46</x:t>
+  </x:si>
+  <x:si>
     <x:t>BATCH048</x:t>
   </x:si>
   <x:si>
+    <x:t>2025-11-06 12:10:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-08 12:10:00</x:t>
+  </x:si>
+  <x:si>
     <x:t>2025-11-05 12:10:36</x:t>
   </x:si>
   <x:si>
-    <x:t>2025-11-06 12:10:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-11-08 12:10:00</x:t>
+    <x:t>2025-11-06 10:01:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH049</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Official Test - Recipe 01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 10:02:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-09 10:02:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 10:02:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 10:31:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test all function except reports</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 11:06:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 15:11:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 11:06:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 11:10:19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 11:54:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-10 11:54:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 12:14:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 12:19:32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH052</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 12:35:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-11 12:35:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 12:35:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 12:39:42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 14:54:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 14:54:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 14:54:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 14:59:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 15:06:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 15:06:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 15:06:24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 15:10:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 15:15:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 15:18:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH056</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 15:25:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 15:28:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH057</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 15:29:24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 15:29:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 15:29:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 15:29:59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 16:40:11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 16:40:24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 16:40:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">test operator
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 16:41:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 17:03:17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 17:06:22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH062</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 17:25:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 17:28:54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH063</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 17:34:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 17:37:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 17:52:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-06 17:49:02</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1099,7 +1304,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:17">
+    <x:row r="1" spans="1:18">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1146,7 +1351,7 @@
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:17">
+    <x:row r="2" spans="1:18">
       <x:c r="A2" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
@@ -1199,7 +1404,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:17">
+    <x:row r="3" spans="1:18">
       <x:c r="A3" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -1252,7 +1457,7 @@
         <x:v>31</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:17">
+    <x:row r="4" spans="1:18">
       <x:c r="A4" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
@@ -1305,7 +1510,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:17">
+    <x:row r="5" spans="1:18">
       <x:c r="A5" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
@@ -1358,7 +1563,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:17">
+    <x:row r="6" spans="1:18">
       <x:c r="A6" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
@@ -1411,7 +1616,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:17">
+    <x:row r="7" spans="1:18">
       <x:c r="A7" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
@@ -1464,7 +1669,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:17">
+    <x:row r="8" spans="1:18">
       <x:c r="A8" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
@@ -1517,7 +1722,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:17">
+    <x:row r="9" spans="1:18">
       <x:c r="A9" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
@@ -1570,7 +1775,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:17">
+    <x:row r="10" spans="1:18">
       <x:c r="A10" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
@@ -1623,7 +1828,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:17">
+    <x:row r="11" spans="1:18">
       <x:c r="A11" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
@@ -1676,7 +1881,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:17">
+    <x:row r="12" spans="1:18">
       <x:c r="A12" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
@@ -1729,7 +1934,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:17">
+    <x:row r="13" spans="1:18">
       <x:c r="A13" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
@@ -1782,7 +1987,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:17">
+    <x:row r="14" spans="1:18">
       <x:c r="A14" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
@@ -1835,7 +2040,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:17">
+    <x:row r="15" spans="1:18">
       <x:c r="A15" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
@@ -1888,7 +2093,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:17">
+    <x:row r="16" spans="1:18">
       <x:c r="A16" s="0" t="s">
         <x:v>95</x:v>
       </x:c>
@@ -1941,7 +2146,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:17">
+    <x:row r="17" spans="1:18">
       <x:c r="A17" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
@@ -1994,7 +2199,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:17">
+    <x:row r="18" spans="1:18">
       <x:c r="A18" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
@@ -2047,7 +2252,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:17">
+    <x:row r="19" spans="1:18">
       <x:c r="A19" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
@@ -2100,7 +2305,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:17">
+    <x:row r="20" spans="1:18">
       <x:c r="A20" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
@@ -2153,7 +2358,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:17">
+    <x:row r="21" spans="1:18">
       <x:c r="A21" s="0" t="s">
         <x:v>119</x:v>
       </x:c>
@@ -2206,7 +2411,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:17">
+    <x:row r="22" spans="1:18">
       <x:c r="A22" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
@@ -2259,7 +2464,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:17">
+    <x:row r="23" spans="1:18">
       <x:c r="A23" s="0" t="s">
         <x:v>129</x:v>
       </x:c>
@@ -2312,7 +2517,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:17">
+    <x:row r="24" spans="1:18">
       <x:c r="A24" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
@@ -2365,7 +2570,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:17">
+    <x:row r="25" spans="1:18">
       <x:c r="A25" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
@@ -2418,7 +2623,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:17">
+    <x:row r="26" spans="1:18">
       <x:c r="A26" s="0" t="s">
         <x:v>144</x:v>
       </x:c>
@@ -2471,7 +2676,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:17">
+    <x:row r="27" spans="1:18">
       <x:c r="A27" s="0" t="s">
         <x:v>152</x:v>
       </x:c>
@@ -2524,7 +2729,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:17">
+    <x:row r="28" spans="1:18">
       <x:c r="A28" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
@@ -2577,7 +2782,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:17">
+    <x:row r="29" spans="1:18">
       <x:c r="A29" s="0" t="s">
         <x:v>162</x:v>
       </x:c>
@@ -2630,7 +2835,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:17">
+    <x:row r="30" spans="1:18">
       <x:c r="A30" s="0" t="s">
         <x:v>167</x:v>
       </x:c>
@@ -2683,7 +2888,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:17">
+    <x:row r="31" spans="1:18">
       <x:c r="A31" s="0" t="s">
         <x:v>172</x:v>
       </x:c>
@@ -2736,7 +2941,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:17">
+    <x:row r="32" spans="1:18">
       <x:c r="A32" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
@@ -2789,7 +2994,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:17">
+    <x:row r="33" spans="1:18">
       <x:c r="A33" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
@@ -2842,7 +3047,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:17">
+    <x:row r="34" spans="1:18">
       <x:c r="A34" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
@@ -2895,7 +3100,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:17">
+    <x:row r="35" spans="1:18">
       <x:c r="A35" s="0" t="s">
         <x:v>184</x:v>
       </x:c>
@@ -2948,7 +3153,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:17">
+    <x:row r="36" spans="1:18">
       <x:c r="A36" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
@@ -3001,7 +3206,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:17">
+    <x:row r="37" spans="1:18">
       <x:c r="A37" s="0" t="s">
         <x:v>190</x:v>
       </x:c>
@@ -3054,7 +3259,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:17">
+    <x:row r="38" spans="1:18">
       <x:c r="A38" s="0" t="s">
         <x:v>193</x:v>
       </x:c>
@@ -3107,7 +3312,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:17">
+    <x:row r="39" spans="1:18">
       <x:c r="A39" s="0" t="s">
         <x:v>196</x:v>
       </x:c>
@@ -3160,7 +3365,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:17">
+    <x:row r="40" spans="1:18">
       <x:c r="A40" s="0" t="s">
         <x:v>199</x:v>
       </x:c>
@@ -3213,7 +3418,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:17">
+    <x:row r="41" spans="1:18">
       <x:c r="A41" s="0" t="s">
         <x:v>202</x:v>
       </x:c>
@@ -3266,7 +3471,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:17">
+    <x:row r="42" spans="1:18">
       <x:c r="A42" s="0" t="s">
         <x:v>205</x:v>
       </x:c>
@@ -3319,7 +3524,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:17">
+    <x:row r="43" spans="1:18">
       <x:c r="A43" s="0" t="s">
         <x:v>208</x:v>
       </x:c>
@@ -3372,7 +3577,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:17">
+    <x:row r="44" spans="1:18">
       <x:c r="A44" s="0" t="s">
         <x:v>211</x:v>
       </x:c>
@@ -3425,7 +3630,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:17">
+    <x:row r="45" spans="1:18">
       <x:c r="A45" s="0" t="s">
         <x:v>214</x:v>
       </x:c>
@@ -3478,7 +3683,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:17">
+    <x:row r="46" spans="1:18">
       <x:c r="A46" s="0" t="s">
         <x:v>217</x:v>
       </x:c>
@@ -3531,7 +3736,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:17">
+    <x:row r="47" spans="1:18">
       <x:c r="A47" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
@@ -3584,7 +3789,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:17">
+    <x:row r="48" spans="1:18">
       <x:c r="A48" s="0" t="s">
         <x:v>224</x:v>
       </x:c>
@@ -3601,13 +3806,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
         <x:v>226</x:v>
       </x:c>
-      <x:c r="G48" s="0" t="s">
+      <x:c r="H48" s="0" t="s">
         <x:v>227</x:v>
-      </x:c>
-      <x:c r="H48" s="0" t="s">
-        <x:v>228</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s">
         <x:v>222</x:v>
@@ -3619,27 +3824,27 @@
         <x:v>222</x:v>
       </x:c>
       <x:c r="L48" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="M48" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="N48" s="0" t="s">
         <x:v>229</x:v>
       </x:c>
-      <x:c r="M48" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="N48" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="O48" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="P48" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="Q48" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:17">
+    <x:row r="49" spans="1:18">
       <x:c r="A49" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>16</x:v>
@@ -3654,13 +3859,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="H49" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s">
         <x:v>222</x:v>
@@ -3672,21 +3877,911 @@
         <x:v>222</x:v>
       </x:c>
       <x:c r="L49" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="M49" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="N49" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="O49" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="P49" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="Q49" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:18">
+      <x:c r="A50" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D50" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E50" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="J50" s="2">
+        <x:v>45967.4183995718</x:v>
+      </x:c>
+      <x:c r="K50" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="L50" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="M50" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="N50" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O50" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P50" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q50" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:18">
+      <x:c r="A51" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D51" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E51" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J51" s="2">
+        <x:v>45967.4629261574</x:v>
+      </x:c>
+      <x:c r="K51" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L51" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="M51" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="N51" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O51" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P51" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q51" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:18">
+      <x:c r="A52" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D52" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E52" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="J52" s="2">
+        <x:v>45967.4964647338</x:v>
+      </x:c>
+      <x:c r="K52" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L52" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="M52" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="N52" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O52" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P52" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q52" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="R52" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:18">
+      <x:c r="A53" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D53" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E53" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J53" s="2">
+        <x:v>45967.5247032407</x:v>
+      </x:c>
+      <x:c r="K53" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L53" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="M53" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="N53" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O53" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P53" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q53" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="R53" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:18">
+      <x:c r="A54" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D54" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E54" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J54" s="2">
+        <x:v>45967.6212812153</x:v>
+      </x:c>
+      <x:c r="K54" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L54" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="M54" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="N54" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O54" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P54" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q54" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="R54" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:18">
+      <x:c r="A55" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D55" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E55" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J55" s="2">
+        <x:v>45967.629440162</x:v>
+      </x:c>
+      <x:c r="K55" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L55" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="M55" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="N55" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O55" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P55" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q55" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="R55" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:18">
+      <x:c r="A56" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D56" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E56" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J56" s="2">
+        <x:v>45967.6354682523</x:v>
+      </x:c>
+      <x:c r="K56" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L56" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="M56" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="N56" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O56" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P56" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q56" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="R56" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:18">
+      <x:c r="A57" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D57" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E57" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J57" s="2">
+        <x:v>45967.6426383681</x:v>
+      </x:c>
+      <x:c r="K57" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L57" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="M57" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="N57" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="O57" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P57" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q57" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="R57" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:18">
+      <x:c r="A58" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D58" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E58" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J58" s="2">
+        <x:v>45967.6454000463</x:v>
+      </x:c>
+      <x:c r="K58" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L58" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="M58" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="N58" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O58" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="P58" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="Q58" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="R58" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:18">
+      <x:c r="A59" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D59" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E59" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J59" s="2">
+        <x:v>45967.6456997107</x:v>
+      </x:c>
+      <x:c r="K59" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L59" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="M59" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="N59" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O59" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="P59" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="Q59" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="R59" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:18">
+      <x:c r="A60" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D60" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E60" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I60" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J60" s="2">
+        <x:v>45967.6945608565</x:v>
+      </x:c>
+      <x:c r="K60" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L60" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="M60" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="N60" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O60" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="P60" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="Q60" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="R60" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:18">
+      <x:c r="A61" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D61" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E61" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I61" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J61" s="2">
+        <x:v>45967.6948368518</x:v>
+      </x:c>
+      <x:c r="K61" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L61" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="M61" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="N61" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O61" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="P61" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="Q61" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="R61" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:18">
+      <x:c r="A62" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D62" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E62" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J62" s="2">
+        <x:v>45967.7105879398</x:v>
+      </x:c>
+      <x:c r="K62" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L62" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="M62" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="N62" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="O62" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P62" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q62" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="R62" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:18">
+      <x:c r="A63" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D63" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E63" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I63" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J63" s="2">
+        <x:v>45967.7258240162</x:v>
+      </x:c>
+      <x:c r="K63" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L63" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="M63" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="N63" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="O63" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P63" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q63" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="R63" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:18">
+      <x:c r="A64" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D64" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E64" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I64" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J64" s="2">
+        <x:v>45967.7323591088</x:v>
+      </x:c>
+      <x:c r="K64" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L64" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="M64" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="N64" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="O64" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P64" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q64" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="R64" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:18">
+      <x:c r="A65" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D65" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E65" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F65" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H65" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I65" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J65" s="2">
+        <x:v>45967.7423723495</x:v>
+      </x:c>
+      <x:c r="K65" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L65" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="M65" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="N65" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="O65" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P65" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q65" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="R65" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>

--- a/Data/Batches.xlsx
+++ b/Data/Batches.xlsx
@@ -917,10 +917,80 @@
     <x:t>BATCH064</x:t>
   </x:si>
   <x:si>
+    <x:t>2025-11-06 17:49:02</x:t>
+  </x:si>
+  <x:si>
     <x:t>2025-11-06 17:52:02</x:t>
   </x:si>
   <x:si>
-    <x:t>2025-11-06 17:49:02</x:t>
+    <x:t>BATCH065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 09:57:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 10:00:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 10:10:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-13 10:10:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 10:10:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 10:11:24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-14 10:12:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-20 10:12:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 10:12:42</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">test from weighing
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 10:12:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 10:21:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 10:21:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 10:21:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 10:22:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 10:26:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 10:25:54</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -4764,11 +4834,11 @@
         <x:v>222</x:v>
       </x:c>
       <x:c r="L65" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="M65" s="0" t="s">
         <x:v>301</x:v>
       </x:c>
-      <x:c r="M65" s="0" t="s">
-        <x:v>300</x:v>
-      </x:c>
       <x:c r="N65" s="0" t="s">
         <x:v>222</x:v>
       </x:c>
@@ -4782,6 +4852,342 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="R65" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:18">
+      <x:c r="A66" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D66" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E66" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H66" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I66" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J66" s="2">
+        <x:v>45968.4150324768</x:v>
+      </x:c>
+      <x:c r="K66" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L66" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="M66" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="N66" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="O66" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P66" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q66" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="R66" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:18">
+      <x:c r="A67" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D67" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E67" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F67" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="H67" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="I67" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J67" s="2">
+        <x:v>45968.4240005903</x:v>
+      </x:c>
+      <x:c r="K67" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L67" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="M67" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="N67" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O67" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="P67" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="Q67" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="R67" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:18">
+      <x:c r="A68" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D68" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E68" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F68" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G68" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="H68" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="I68" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J68" s="2">
+        <x:v>45968.4254777431</x:v>
+      </x:c>
+      <x:c r="K68" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L68" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="M68" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="N68" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O68" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="P68" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="Q68" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="R68" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:18">
+      <x:c r="A69" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D69" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E69" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F69" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G69" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H69" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I69" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J69" s="2">
+        <x:v>45968.4312828704</x:v>
+      </x:c>
+      <x:c r="K69" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L69" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="M69" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="N69" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O69" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="P69" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="Q69" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="R69" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:18">
+      <x:c r="A70" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D70" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E70" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G70" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H70" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I70" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J70" s="2">
+        <x:v>45968.431762419</x:v>
+      </x:c>
+      <x:c r="K70" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L70" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="M70" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="N70" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O70" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="P70" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="Q70" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="R70" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:18">
+      <x:c r="A71" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D71" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E71" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F71" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G71" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H71" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I71" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J71" s="2">
+        <x:v>45968.4346411111</x:v>
+      </x:c>
+      <x:c r="K71" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L71" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="M71" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="N71" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O71" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="P71" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="Q71" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="R71" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>

--- a/Data/Batches.xlsx
+++ b/Data/Batches.xlsx
@@ -987,10 +987,58 @@
     <x:t>BATCH070</x:t>
   </x:si>
   <x:si>
+    <x:t>2025-11-07 10:25:54</x:t>
+  </x:si>
+  <x:si>
     <x:t>2025-11-07 10:26:04</x:t>
   </x:si>
   <x:si>
-    <x:t>2025-11-07 10:25:54</x:t>
+    <x:t>BATCH071</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-14 11:19:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-08 11:19:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 11:19:51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 11:29:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH072</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-08 11:52:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-14 11:52:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 11:52:19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 12:04:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 12:38:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 15:28:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BATCH074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-11-07 15:29:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InProgress</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -5170,7 +5218,7 @@
         <x:v>222</x:v>
       </x:c>
       <x:c r="L71" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="M71" s="0" t="s">
         <x:v>19</x:v>
@@ -5185,9 +5233,233 @@
         <x:v>222</x:v>
       </x:c>
       <x:c r="Q71" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="R71" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:18">
+      <x:c r="A72" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D72" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E72" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F72" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G72" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="H72" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="I72" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="J72" s="2">
+        <x:v>45968.472099537</x:v>
+      </x:c>
+      <x:c r="K72" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="L72" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="M72" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="N72" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="O72" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P72" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q72" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="R72" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:18">
+      <x:c r="A73" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D73" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E73" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F73" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G73" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="H73" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="I73" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J73" s="2">
+        <x:v>45968.4946531019</x:v>
+      </x:c>
+      <x:c r="K73" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L73" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="M73" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="N73" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="O73" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P73" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q73" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="R73" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:18">
+      <x:c r="A74" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D74" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E74" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F74" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G74" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H74" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I74" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="J74" s="2">
+        <x:v>45968.5265485185</x:v>
+      </x:c>
+      <x:c r="K74" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="L74" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="M74" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="N74" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="O74" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P74" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q74" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="R74" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:18">
+      <x:c r="A75" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D75" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E75" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="G75" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H75" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I75" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J75" s="2">
+        <x:v>45968.6452298958</x:v>
+      </x:c>
+      <x:c r="K75" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="L75" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="M75" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="N75" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O75" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="P75" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q75" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="R75" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
